--- a/databaze_filmu.xlsx
+++ b/databaze_filmu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c678b8341a1804/Dokumenty/carousely/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{F0DD17AA-57C3-401E-A619-37D4E16B6A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93C299BD-9F8C-4C08-84A5-744EFA787FE7}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{F0DD17AA-57C3-401E-A619-37D4E16B6A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71575A5C-A712-44AE-9749-E28D505B270C}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="databaze_filmu" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">databaze_filmu!$A$1:$A$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">databaze_filmu!$A$1:$A$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="184">
   <si>
     <t>Jen samé krásné věci</t>
   </si>
@@ -574,6 +574,24 @@
   </si>
   <si>
     <t>Mučen pro Krista</t>
+  </si>
+  <si>
+    <t>Carlo Acutis - Misionář 2.0</t>
+  </si>
+  <si>
+    <t>Skrytá požehnání</t>
+  </si>
+  <si>
+    <t>Všechno nebo nic: S. Clare Crockett</t>
+  </si>
+  <si>
+    <t>Nebe v podzemí</t>
+  </si>
+  <si>
+    <t>Milost pro Harlem</t>
+  </si>
+  <si>
+    <t>Nový duch</t>
   </si>
 </sst>
 </file>
@@ -1457,10 +1475,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="VŠECHNY_FILMY" displayName="VŠECHNY_FILMY" ref="A1:T171">
-  <autoFilter ref="A1:T171" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T171">
-    <sortCondition ref="A1:A171"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="VŠECHNY_FILMY" displayName="VŠECHNY_FILMY" ref="A1:T170">
+  <autoFilter ref="A1:T170" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T170">
+    <sortCondition ref="A1:A170"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="5" xr3:uid="{B4048FE8-48A7-4A5F-8318-B61F55474511}" name="číslo" dataDxfId="16">
@@ -1691,11 +1709,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T198"/>
+  <dimension ref="A1:T197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F158" sqref="F158"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U163" sqref="U163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1710,6 +1728,7 @@
     <col min="12" max="12" width="21.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" customWidth="1"/>
     <col min="25" max="25" width="18.140625" customWidth="1"/>
     <col min="26" max="26" width="25.5703125" customWidth="1"/>
     <col min="27" max="27" width="21.140625" customWidth="1"/>
@@ -1786,10 +1805,10 @@
     <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.41962597075023622</v>
+        <v>0.92235655832425711</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>153</v>
@@ -1798,22 +1817,22 @@
         <v>153</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>153</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>153</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>153</v>
@@ -1825,7 +1844,7 @@
         <v>153</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>153</v>
@@ -1840,7 +1859,7 @@
         <v>153</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>153</v>
@@ -1849,13 +1868,13 @@
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3311817752125532E-2</v>
+        <v>0.9227435974657644</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>153</v>
@@ -1864,7 +1883,7 @@
         <v>153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>153</v>
@@ -1876,7 +1895,7 @@
         <v>153</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>153</v>
@@ -1888,13 +1907,13 @@
         <v>153</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>153</v>
@@ -1912,10 +1931,10 @@
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40299848105729896</v>
+        <v>0.9299054860233148</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>153</v>
@@ -1948,16 +1967,16 @@
         <v>153</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>153</v>
@@ -1966,7 +1985,7 @@
         <v>153</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>153</v>
@@ -1975,10 +1994,10 @@
     <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70942782226787471</v>
+        <v>0.99333240485764707</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>153</v>
@@ -1987,10 +2006,10 @@
         <v>153</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>153</v>
@@ -2020,13 +2039,13 @@
         <v>153</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>153</v>
@@ -2038,16 +2057,16 @@
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.408847646151421</v>
+        <v>0.36437187084221967</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>153</v>
@@ -2056,7 +2075,7 @@
         <v>153</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>153</v>
@@ -2071,7 +2090,7 @@
         <v>153</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>153</v>
@@ -2092,7 +2111,7 @@
         <v>153</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>153</v>
@@ -2101,16 +2120,16 @@
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86729048147959775</v>
+        <v>0.64879541012090758</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>153</v>
@@ -2131,22 +2150,22 @@
         <v>153</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>153</v>
@@ -2164,10 +2183,10 @@
     <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54089286406328718</v>
+        <v>0.81370753745171565</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>153</v>
@@ -2179,7 +2198,7 @@
         <v>153</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>153</v>
@@ -2197,7 +2216,7 @@
         <v>153</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>153</v>
@@ -2206,10 +2225,10 @@
         <v>153</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>153</v>
@@ -2227,7 +2246,7 @@
     <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35191606762147654</v>
+        <v>0.24035472003423641</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
@@ -2290,10 +2309,10 @@
     <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46681687157807494</v>
+        <v>0.81757245305100634</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>153</v>
@@ -2308,7 +2327,7 @@
         <v>153</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>153</v>
@@ -2323,7 +2342,7 @@
         <v>153</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>153</v>
@@ -2335,16 +2354,16 @@
         <v>153</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>153</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>153</v>
@@ -2353,10 +2372,10 @@
     <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93759121977759607</v>
+        <v>0.58807364307867416</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>153</v>
@@ -2365,7 +2384,7 @@
         <v>153</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>153</v>
@@ -2377,13 +2396,13 @@
         <v>153</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>153</v>
@@ -2398,7 +2417,7 @@
         <v>153</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>153</v>
@@ -2416,16 +2435,16 @@
     <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61266155048813697</v>
+        <v>0.94616726016072061</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>153</v>
@@ -2440,7 +2459,7 @@
         <v>153</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>153</v>
@@ -2479,10 +2498,10 @@
     <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61458415208749695</v>
+        <v>7.3383439727505162E-2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>153</v>
@@ -2512,7 +2531,7 @@
         <v>153</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>153</v>
@@ -2533,7 +2552,7 @@
         <v>153</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>153</v>
@@ -2542,13 +2561,13 @@
     <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69258535631020768</v>
+        <v>0.11005499032683674</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>153</v>
@@ -2560,7 +2579,7 @@
         <v>153</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>153</v>
@@ -2578,7 +2597,7 @@
         <v>153</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>153</v>
@@ -2590,7 +2609,7 @@
         <v>153</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>153</v>
@@ -2605,22 +2624,22 @@
     <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1834094919169718E-2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>141</v>
+        <v>0.25281358944039134</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>153</v>
@@ -2650,13 +2669,13 @@
         <v>153</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>153</v>
@@ -2668,10 +2687,10 @@
     <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69539724046253271</v>
+        <v>0.37234659750021648</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>153</v>
@@ -2680,7 +2699,7 @@
         <v>153</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>153</v>
@@ -2701,25 +2720,25 @@
         <v>153</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>153</v>
@@ -2731,10 +2750,10 @@
     <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39661691399892784</v>
+        <v>0.72392292294294858</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>153</v>
@@ -2743,10 +2762,10 @@
         <v>153</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>153</v>
@@ -2761,7 +2780,7 @@
         <v>153</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>153</v>
@@ -2770,7 +2789,7 @@
         <v>153</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>153</v>
@@ -2782,7 +2801,7 @@
         <v>153</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>153</v>
@@ -2794,10 +2813,10 @@
     <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24897261841957175</v>
+        <v>0.70953353595548219</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>153</v>
@@ -2830,7 +2849,7 @@
         <v>153</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>153</v>
@@ -2842,7 +2861,7 @@
         <v>153</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>153</v>
@@ -2857,10 +2876,10 @@
     <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3819245527332193E-2</v>
+        <v>0.75251966819156491</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>153</v>
@@ -2890,7 +2909,7 @@
         <v>153</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>153</v>
@@ -2902,7 +2921,7 @@
         <v>153</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>153</v>
@@ -2911,7 +2930,7 @@
         <v>153</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>153</v>
@@ -2920,10 +2939,10 @@
     <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54763182476803829</v>
+        <v>0.30452576757986782</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>153</v>
@@ -2947,7 +2966,7 @@
         <v>153</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>153</v>
@@ -2983,10 +3002,10 @@
     <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49143887824608223</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>0.70093701443196221</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>153</v>
@@ -2995,10 +3014,10 @@
         <v>153</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>153</v>
@@ -3046,10 +3065,10 @@
     <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42750784661665975</v>
+        <v>0.7656477535525078</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>153</v>
@@ -3058,7 +3077,7 @@
         <v>153</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>154</v>
@@ -3073,7 +3092,7 @@
         <v>153</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>153</v>
@@ -3088,7 +3107,7 @@
         <v>153</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>153</v>
@@ -3109,10 +3128,10 @@
     <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66885590143463325</v>
+        <v>0.56561903667945235</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>153</v>
@@ -3121,7 +3140,7 @@
         <v>153</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>153</v>
@@ -3130,13 +3149,13 @@
         <v>153</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>153</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>153</v>
@@ -3148,13 +3167,13 @@
         <v>153</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>153</v>
@@ -3163,7 +3182,7 @@
         <v>153</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>153</v>
@@ -3172,19 +3191,19 @@
     <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18836287527014539</v>
+        <v>0.14870852215118913</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>153</v>
@@ -3196,13 +3215,13 @@
         <v>153</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>153</v>
@@ -3211,7 +3230,7 @@
         <v>153</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>153</v>
@@ -3223,7 +3242,7 @@
         <v>153</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>153</v>
@@ -3235,10 +3254,10 @@
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24934354621839039</v>
+        <v>0.85339512233228454</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>153</v>
@@ -3259,13 +3278,13 @@
         <v>153</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>153</v>
@@ -3274,13 +3293,13 @@
         <v>153</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>153</v>
@@ -3298,10 +3317,10 @@
     <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58512094876570886</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>173</v>
+        <v>0.85276420969000355</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>153</v>
@@ -3313,7 +3332,7 @@
         <v>153</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>153</v>
@@ -3325,7 +3344,7 @@
         <v>153</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>153</v>
@@ -3343,13 +3362,13 @@
         <v>153</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>153</v>
@@ -3361,10 +3380,10 @@
     <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36656676658083531</v>
+        <v>0.7619376760753156</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>153</v>
@@ -3373,7 +3392,7 @@
         <v>153</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>153</v>
@@ -3415,19 +3434,19 @@
         <v>153</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73463192405742217</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>128</v>
+        <v>0.89513142451297512</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>172</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>153</v>
@@ -3457,7 +3476,7 @@
         <v>153</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>153</v>
@@ -3487,10 +3506,10 @@
     <row r="29" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31446286300860116</v>
+        <v>0.85851522570261796</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>153</v>
@@ -3544,19 +3563,19 @@
         <v>153</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44283249931753677</v>
+        <v>0.75387595863603207</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>153</v>
@@ -3565,7 +3584,7 @@
         <v>153</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>153</v>
@@ -3595,13 +3614,13 @@
         <v>153</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>153</v>
@@ -3613,10 +3632,10 @@
     <row r="31" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38671515231633291</v>
+        <v>0.15922854099300554</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>153</v>
@@ -3652,10 +3671,10 @@
         <v>153</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>153</v>
@@ -3664,7 +3683,7 @@
         <v>153</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>153</v>
@@ -3676,10 +3695,10 @@
     <row r="32" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8469278342651032E-3</v>
+        <v>3.3085703285707702E-2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>153</v>
@@ -3688,10 +3707,10 @@
         <v>153</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>153</v>
@@ -3718,13 +3737,13 @@
         <v>153</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R32" s="6" t="s">
         <v>153</v>
@@ -3739,10 +3758,10 @@
     <row r="33" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1920065131097362E-2</v>
+        <v>8.6087757579288771E-2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>153</v>
@@ -3754,7 +3773,7 @@
         <v>153</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>153</v>
@@ -3772,7 +3791,7 @@
         <v>153</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>153</v>
@@ -3784,7 +3803,7 @@
         <v>153</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>153</v>
@@ -3801,11 +3820,11 @@
     </row>
     <row r="34" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <f t="shared" ref="A34:A63" ca="1" si="1">RAND()</f>
-        <v>6.8222707484023482E-2</v>
+        <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
+        <v>0.63920534430255382</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>153</v>
@@ -3814,7 +3833,7 @@
         <v>153</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>153</v>
@@ -3826,28 +3845,28 @@
         <v>153</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>153</v>
@@ -3856,7 +3875,7 @@
         <v>153</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>153</v>
@@ -3865,10 +3884,10 @@
     <row r="35" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15818951532299885</v>
+        <v>0.21449741664811095</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>153</v>
@@ -3898,7 +3917,7 @@
         <v>153</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>153</v>
@@ -3928,10 +3947,10 @@
     <row r="36" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27666186496475376</v>
+        <v>0.16359987431846834</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>153</v>
@@ -3943,7 +3962,7 @@
         <v>153</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>153</v>
@@ -3955,13 +3974,13 @@
         <v>153</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>153</v>
@@ -3973,7 +3992,7 @@
         <v>153</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>153</v>
@@ -3982,19 +4001,19 @@
         <v>153</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51699508908899239</v>
+        <v>0.52451521889253783</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>153</v>
@@ -4015,13 +4034,13 @@
         <v>153</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>153</v>
@@ -4030,13 +4049,13 @@
         <v>153</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O37" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>153</v>
@@ -4054,10 +4073,10 @@
     <row r="38" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9558138501051141</v>
+        <v>0.12701628509396945</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>153</v>
@@ -4087,7 +4106,7 @@
         <v>153</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>153</v>
@@ -4108,7 +4127,7 @@
         <v>153</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T38" s="6" t="s">
         <v>153</v>
@@ -4117,10 +4136,10 @@
     <row r="39" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61738287664965885</v>
+        <v>0.14784978878638877</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>153</v>
@@ -4141,16 +4160,16 @@
         <v>153</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>153</v>
@@ -4162,7 +4181,7 @@
         <v>153</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>153</v>
@@ -4180,10 +4199,10 @@
     <row r="40" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61157609795280798</v>
+        <v>0.2801480725782014</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>153</v>
@@ -4234,7 +4253,7 @@
         <v>153</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T40" s="6" t="s">
         <v>153</v>
@@ -4243,13 +4262,13 @@
     <row r="41" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73073322727129231</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>21</v>
+        <v>0.20224031666133024</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>153</v>
@@ -4258,7 +4277,7 @@
         <v>153</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>153</v>
@@ -4267,13 +4286,13 @@
         <v>153</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>153</v>
@@ -4282,10 +4301,10 @@
         <v>153</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>153</v>
@@ -4294,10 +4313,10 @@
         <v>153</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T41" s="6" t="s">
         <v>153</v>
@@ -4306,10 +4325,10 @@
     <row r="42" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82911127021348052</v>
+        <v>0.76580999084570889</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>153</v>
@@ -4321,7 +4340,7 @@
         <v>153</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>153</v>
@@ -4336,10 +4355,10 @@
         <v>153</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>153</v>
@@ -4348,7 +4367,7 @@
         <v>153</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>153</v>
@@ -4369,13 +4388,13 @@
     <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62624070310277147</v>
+        <v>3.5912969639995795E-2</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>153</v>
@@ -4387,7 +4406,7 @@
         <v>153</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>153</v>
@@ -4402,7 +4421,7 @@
         <v>153</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>153</v>
@@ -4423,7 +4442,7 @@
         <v>153</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T43" s="6" t="s">
         <v>153</v>
@@ -4432,10 +4451,10 @@
     <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53886632804837087</v>
+        <v>0.72599207808735711</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>153</v>
@@ -4444,22 +4463,22 @@
         <v>153</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>153</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>153</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>153</v>
@@ -4486,7 +4505,7 @@
         <v>153</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T44" s="6" t="s">
         <v>153</v>
@@ -4495,10 +4514,10 @@
     <row r="45" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82864141538289104</v>
+        <v>0.85686900219594886</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>153</v>
@@ -4507,7 +4526,7 @@
         <v>153</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>153</v>
@@ -4516,7 +4535,7 @@
         <v>153</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>153</v>
@@ -4531,7 +4550,7 @@
         <v>153</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>153</v>
@@ -4558,10 +4577,10 @@
     <row r="46" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65659906841660154</v>
+        <v>0.22016923731468319</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>153</v>
@@ -4570,10 +4589,10 @@
         <v>153</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>153</v>
@@ -4591,7 +4610,7 @@
         <v>153</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>153</v>
@@ -4600,10 +4619,10 @@
         <v>153</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>153</v>
@@ -4621,7 +4640,7 @@
     <row r="47" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82020401205882809</v>
+        <v>0.26003328874365428</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>28</v>
@@ -4684,22 +4703,22 @@
     <row r="48" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94405238512228085</v>
+        <v>0.42000897617976796</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>153</v>
@@ -4729,13 +4748,13 @@
         <v>153</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>153</v>
@@ -4747,19 +4766,19 @@
     <row r="49" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6791550690027276</v>
+        <v>0.85071179639371952</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>153</v>
@@ -4792,7 +4811,7 @@
         <v>153</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q49" s="6" t="s">
         <v>153</v>
@@ -4810,10 +4829,10 @@
     <row r="50" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89220993080774846</v>
+        <v>0.58530238820658487</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>153</v>
@@ -4822,7 +4841,7 @@
         <v>153</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>153</v>
@@ -4840,7 +4859,7 @@
         <v>153</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>153</v>
@@ -4858,7 +4877,7 @@
         <v>153</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R50" s="6" t="s">
         <v>153</v>
@@ -4873,10 +4892,10 @@
     <row r="51" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64467897999987944</v>
+        <v>0.49524340949193935</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>153</v>
@@ -4936,10 +4955,10 @@
     <row r="52" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97454566444077084</v>
+        <v>0.31924803409712244</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>153</v>
@@ -4999,10 +5018,10 @@
     <row r="53" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4951973052263251</v>
+        <v>0.34463317461237719</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>153</v>
@@ -5011,7 +5030,7 @@
         <v>153</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>153</v>
@@ -5020,19 +5039,19 @@
         <v>153</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>153</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>153</v>
@@ -5053,7 +5072,7 @@
         <v>153</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T53" s="6" t="s">
         <v>153</v>
@@ -5062,10 +5081,10 @@
     <row r="54" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38527263780161636</v>
+        <v>0.84414641507726162</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>153</v>
@@ -5077,7 +5096,7 @@
         <v>153</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>153</v>
@@ -5089,7 +5108,7 @@
         <v>153</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>153</v>
@@ -5107,7 +5126,7 @@
         <v>153</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>153</v>
@@ -5125,10 +5144,10 @@
     <row r="55" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53991290741752518</v>
+        <v>0.71515328192945982</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>153</v>
@@ -5140,10 +5159,10 @@
         <v>153</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>153</v>
@@ -5152,7 +5171,7 @@
         <v>153</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>153</v>
@@ -5170,7 +5189,7 @@
         <v>153</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q55" s="6" t="s">
         <v>153</v>
@@ -5179,7 +5198,7 @@
         <v>153</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T55" s="6" t="s">
         <v>153</v>
@@ -5188,10 +5207,10 @@
     <row r="56" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29005603724125106</v>
+        <v>0.85722318539134212</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>153</v>
@@ -5203,7 +5222,7 @@
         <v>153</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>153</v>
@@ -5215,13 +5234,13 @@
         <v>153</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>153</v>
@@ -5230,10 +5249,10 @@
         <v>153</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>153</v>
@@ -5251,22 +5270,22 @@
     <row r="57" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33176412396133759</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>10</v>
+        <v>0.51381515191952642</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>153</v>
@@ -5278,7 +5297,7 @@
         <v>153</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>153</v>
@@ -5296,13 +5315,13 @@
         <v>153</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q57" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S57" s="6" t="s">
         <v>153</v>
@@ -5314,10 +5333,10 @@
     <row r="58" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43399069116046551</v>
+        <v>0.88090519794850963</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>153</v>
@@ -5326,10 +5345,10 @@
         <v>153</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>153</v>
@@ -5341,7 +5360,7 @@
         <v>153</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>153</v>
@@ -5359,7 +5378,7 @@
         <v>153</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q58" s="6" t="s">
         <v>153</v>
@@ -5377,10 +5396,10 @@
     <row r="59" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11863819123959396</v>
+        <v>0.38483065730954691</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>153</v>
@@ -5410,10 +5429,10 @@
         <v>153</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>153</v>
@@ -5422,7 +5441,7 @@
         <v>153</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q59" s="6" t="s">
         <v>153</v>
@@ -5440,13 +5459,13 @@
     <row r="60" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71662548826410621</v>
+        <v>0.10837946901753437</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>153</v>
@@ -5473,16 +5492,16 @@
         <v>153</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M60" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>153</v>
@@ -5491,7 +5510,7 @@
         <v>153</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S60" s="6" t="s">
         <v>153</v>
@@ -5503,10 +5522,10 @@
     <row r="61" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29150792807649739</v>
+        <v>0.58479748154158473</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>154</v>
@@ -5518,7 +5537,7 @@
         <v>153</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>153</v>
@@ -5542,19 +5561,19 @@
         <v>153</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O61" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q61" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S61" s="6" t="s">
         <v>153</v>
@@ -5566,13 +5585,13 @@
     <row r="62" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76358115251550029</v>
+        <v>0.25153792226694183</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>153</v>
@@ -5584,7 +5603,7 @@
         <v>153</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>153</v>
@@ -5611,10 +5630,10 @@
         <v>153</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R62" s="6" t="s">
         <v>153</v>
@@ -5629,10 +5648,10 @@
     <row r="63" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43271990033132413</v>
+        <v>6.777822154651969E-2</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>153</v>
@@ -5641,7 +5660,7 @@
         <v>153</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>153</v>
@@ -5650,7 +5669,7 @@
         <v>153</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>153</v>
@@ -5668,7 +5687,7 @@
         <v>153</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>153</v>
@@ -5691,11 +5710,11 @@
     </row>
     <row r="64" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
-        <f t="shared" ref="A64:A95" ca="1" si="2">RAND()</f>
-        <v>0.65461000275131453</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3831507469331048E-2</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>153</v>
@@ -5754,11 +5773,11 @@
     </row>
     <row r="65" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.59500806916701576</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38325415788948536</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>153</v>
@@ -5770,13 +5789,13 @@
         <v>153</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>153</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>153</v>
@@ -5800,13 +5819,13 @@
         <v>153</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q65" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S65" s="6" t="s">
         <v>153</v>
@@ -5817,17 +5836,17 @@
     </row>
     <row r="66" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.2828400338842777</v>
+        <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
+        <v>0.69230280842726</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>153</v>
@@ -5848,10 +5867,10 @@
         <v>153</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M66" s="5" t="s">
         <v>153</v>
@@ -5863,7 +5882,7 @@
         <v>153</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q66" s="6" t="s">
         <v>153</v>
@@ -5872,7 +5891,7 @@
         <v>153</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T66" s="6" t="s">
         <v>153</v>
@@ -5881,10 +5900,10 @@
     <row r="67" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54151187848642668</v>
+        <v>0.26168031148652304</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>153</v>
@@ -5893,10 +5912,10 @@
         <v>153</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>153</v>
@@ -5917,7 +5936,7 @@
         <v>153</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>153</v>
@@ -5932,7 +5951,7 @@
         <v>153</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S67" s="6" t="s">
         <v>153</v>
@@ -5944,10 +5963,10 @@
     <row r="68" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25127767753804764</v>
+        <v>0.69638652579825655</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>153</v>
@@ -5980,16 +5999,16 @@
         <v>153</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q68" s="6" t="s">
         <v>153</v>
@@ -6007,10 +6026,10 @@
     <row r="69" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27143000050044597</v>
+        <v>0.19853421867874799</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>153</v>
@@ -6070,10 +6089,10 @@
     <row r="70" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50920293809900441</v>
+        <v>0.68966083772576769</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>153</v>
@@ -6082,10 +6101,10 @@
         <v>153</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>153</v>
@@ -6103,16 +6122,16 @@
         <v>153</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M70" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>153</v>
@@ -6133,10 +6152,10 @@
     <row r="71" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66487169264945767</v>
+        <v>0.26376814007349225</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>153</v>
@@ -6196,10 +6215,10 @@
     <row r="72" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56018108363547459</v>
+        <v>1.1053685529609503E-2</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>153</v>
@@ -6208,22 +6227,22 @@
         <v>153</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>153</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>153</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>153</v>
@@ -6259,10 +6278,10 @@
     <row r="73" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16042045278060546</v>
+        <v>0.15522255946789654</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>153</v>
@@ -6271,7 +6290,7 @@
         <v>153</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>153</v>
@@ -6295,7 +6314,7 @@
         <v>153</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>153</v>
@@ -6304,7 +6323,7 @@
         <v>153</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q73" s="6" t="s">
         <v>153</v>
@@ -6322,10 +6341,10 @@
     <row r="74" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73899422170299711</v>
+        <v>0.44698331427050653</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>153</v>
@@ -6337,7 +6356,7 @@
         <v>153</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>153</v>
@@ -6349,25 +6368,25 @@
         <v>153</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M74" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>153</v>
@@ -6385,10 +6404,10 @@
     <row r="75" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51440850293653018</v>
+        <v>0.22623837254471191</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>153</v>
@@ -6397,7 +6416,7 @@
         <v>153</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>153</v>
@@ -6406,7 +6425,7 @@
         <v>153</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>153</v>
@@ -6430,7 +6449,7 @@
         <v>153</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q75" s="6" t="s">
         <v>153</v>
@@ -6439,7 +6458,7 @@
         <v>153</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T75" s="6" t="s">
         <v>153</v>
@@ -6448,10 +6467,10 @@
     <row r="76" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98631643426387583</v>
+        <v>2.7323745335758876E-3</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>153</v>
@@ -6466,7 +6485,7 @@
         <v>153</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>153</v>
@@ -6475,13 +6494,13 @@
         <v>153</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K76" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M76" s="5" t="s">
         <v>153</v>
@@ -6511,10 +6530,10 @@
     <row r="77" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9746300826294361E-2</v>
+        <v>0.93582508891010074</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>153</v>
@@ -6526,7 +6545,7 @@
         <v>153</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>153</v>
@@ -6538,25 +6557,25 @@
         <v>153</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M77" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O77" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q77" s="6" t="s">
         <v>153</v>
@@ -6565,7 +6584,7 @@
         <v>153</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T77" s="6" t="s">
         <v>153</v>
@@ -6574,10 +6593,10 @@
     <row r="78" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47990864536189604</v>
+        <v>0.95422185246867963</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>153</v>
@@ -6589,22 +6608,22 @@
         <v>153</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>153</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J78" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L78" s="6" t="s">
         <v>153</v>
@@ -6622,10 +6641,10 @@
         <v>153</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S78" s="6" t="s">
         <v>153</v>
@@ -6637,10 +6656,10 @@
     <row r="79" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80277489072440655</v>
+        <v>0.23190633139439198</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>153</v>
@@ -6670,7 +6689,7 @@
         <v>153</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M79" s="5" t="s">
         <v>153</v>
@@ -6682,10 +6701,10 @@
         <v>153</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R79" s="6" t="s">
         <v>153</v>
@@ -6700,10 +6719,10 @@
     <row r="80" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1272444737914028</v>
+        <v>0.17112409186351651</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>153</v>
@@ -6712,10 +6731,10 @@
         <v>153</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>153</v>
@@ -6736,7 +6755,7 @@
         <v>153</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N80" s="6" t="s">
         <v>153</v>
@@ -6763,10 +6782,10 @@
     <row r="81" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8358999830663367E-2</v>
+        <v>0.87235600964313642</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>153</v>
@@ -6781,7 +6800,7 @@
         <v>153</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>153</v>
@@ -6799,7 +6818,7 @@
         <v>153</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N81" s="6" t="s">
         <v>153</v>
@@ -6811,7 +6830,7 @@
         <v>153</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R81" s="6" t="s">
         <v>153</v>
@@ -6826,10 +6845,10 @@
     <row r="82" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37346159198174567</v>
+        <v>0.42688729934260417</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>153</v>
@@ -6859,13 +6878,13 @@
         <v>153</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M82" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O82" s="6" t="s">
         <v>153</v>
@@ -6889,13 +6908,13 @@
     <row r="83" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67042725684676208</v>
+        <v>0.5299627816655138</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>153</v>
@@ -6943,7 +6962,7 @@
         <v>153</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T83" s="6" t="s">
         <v>153</v>
@@ -6952,10 +6971,10 @@
     <row r="84" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18644708429414059</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>107</v>
+        <v>0.23645946988276756</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>153</v>
@@ -6964,7 +6983,7 @@
         <v>153</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>153</v>
@@ -6973,7 +6992,7 @@
         <v>153</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>153</v>
@@ -6997,7 +7016,7 @@
         <v>153</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q84" s="6" t="s">
         <v>153</v>
@@ -7015,10 +7034,10 @@
     <row r="85" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35188891494516339</v>
+        <v>0.99469298602496037</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>153</v>
@@ -7030,7 +7049,7 @@
         <v>153</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>153</v>
@@ -7048,7 +7067,7 @@
         <v>153</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M85" s="5" t="s">
         <v>153</v>
@@ -7057,10 +7076,10 @@
         <v>153</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q85" s="6" t="s">
         <v>153</v>
@@ -7069,7 +7088,7 @@
         <v>153</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T85" s="6" t="s">
         <v>153</v>
@@ -7078,10 +7097,10 @@
     <row r="86" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87296529929564137</v>
+        <v>0.12965091233154125</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>153</v>
@@ -7093,7 +7112,7 @@
         <v>153</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>153</v>
@@ -7120,10 +7139,10 @@
         <v>153</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q86" s="6" t="s">
         <v>153</v>
@@ -7141,10 +7160,10 @@
     <row r="87" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36477255623380855</v>
+        <v>0.85799739088012716</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>153</v>
@@ -7153,7 +7172,7 @@
         <v>153</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>153</v>
@@ -7204,13 +7223,13 @@
     <row r="88" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97876823308914152</v>
+        <v>0.68058732655734644</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>153</v>
@@ -7231,19 +7250,19 @@
         <v>153</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K88" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M88" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>153</v>
@@ -7258,7 +7277,7 @@
         <v>153</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T88" s="6" t="s">
         <v>153</v>
@@ -7267,10 +7286,10 @@
     <row r="89" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51758430277505751</v>
+        <v>0.78484121679256325</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>153</v>
@@ -7285,7 +7304,7 @@
         <v>153</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>153</v>
@@ -7300,7 +7319,7 @@
         <v>153</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M89" s="5" t="s">
         <v>153</v>
@@ -7312,10 +7331,10 @@
         <v>153</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R89" s="6" t="s">
         <v>153</v>
@@ -7330,10 +7349,10 @@
     <row r="90" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53862888225358507</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>55</v>
+        <v>0.8499858104381055</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>153</v>
@@ -7345,7 +7364,7 @@
         <v>153</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>153</v>
@@ -7354,13 +7373,13 @@
         <v>153</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L90" s="6" t="s">
         <v>153</v>
@@ -7381,7 +7400,7 @@
         <v>153</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S90" s="6" t="s">
         <v>153</v>
@@ -7393,16 +7412,16 @@
     <row r="91" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43664044895243859</v>
+        <v>0.91471761223695314</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>153</v>
@@ -7414,7 +7433,7 @@
         <v>153</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>153</v>
@@ -7432,10 +7451,10 @@
         <v>153</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P91" s="6" t="s">
         <v>153</v>
@@ -7444,7 +7463,7 @@
         <v>153</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S91" s="6" t="s">
         <v>153</v>
@@ -7456,12 +7475,12 @@
     <row r="92" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1147181724529569</v>
+        <v>0.13369688203503372</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -7474,10 +7493,10 @@
         <v>153</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>153</v>
@@ -7489,7 +7508,7 @@
         <v>153</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M92" s="5" t="s">
         <v>153</v>
@@ -7519,10 +7538,10 @@
     <row r="93" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5884341847848128</v>
+        <v>0.64068653523807895</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>153</v>
@@ -7531,7 +7550,7 @@
         <v>153</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>153</v>
@@ -7540,7 +7559,7 @@
         <v>153</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>153</v>
@@ -7549,7 +7568,7 @@
         <v>153</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L93" s="6" t="s">
         <v>153</v>
@@ -7558,7 +7577,7 @@
         <v>153</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>153</v>
@@ -7582,10 +7601,10 @@
     <row r="94" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40349310667370952</v>
+        <v>0.35789460203206247</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>153</v>
@@ -7600,7 +7619,7 @@
         <v>153</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>153</v>
@@ -7615,7 +7634,7 @@
         <v>153</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M94" s="5" t="s">
         <v>153</v>
@@ -7627,16 +7646,16 @@
         <v>153</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R94" s="6" t="s">
         <v>153</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T94" s="6" t="s">
         <v>153</v>
@@ -7645,10 +7664,10 @@
     <row r="95" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39589500537976141</v>
+        <v>0.58860019717707535</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>153</v>
@@ -7666,7 +7685,7 @@
         <v>153</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>153</v>
@@ -7707,29 +7726,29 @@
     </row>
     <row r="96" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
-        <f t="shared" ref="A96:A127" ca="1" si="3">RAND()</f>
-        <v>0.25051040815340098</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3868980734131684</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>153</v>
@@ -7741,7 +7760,7 @@
         <v>153</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>153</v>
@@ -7770,11 +7789,11 @@
     </row>
     <row r="97" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.57553253406944993</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70632333457293783</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>153</v>
@@ -7786,7 +7805,7 @@
         <v>153</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>153</v>
@@ -7798,13 +7817,13 @@
         <v>153</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M97" s="5" t="s">
         <v>153</v>
@@ -7816,7 +7835,7 @@
         <v>153</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q97" s="6" t="s">
         <v>153</v>
@@ -7833,11 +7852,11 @@
     </row>
     <row r="98" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.35685765586999241</v>
+        <f t="shared" ref="A98:A129" ca="1" si="3">RAND()</f>
+        <v>0.69440040579122608</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>153</v>
@@ -7849,7 +7868,7 @@
         <v>153</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>153</v>
@@ -7858,13 +7877,13 @@
         <v>153</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L98" s="6" t="s">
         <v>153</v>
@@ -7873,7 +7892,7 @@
         <v>153</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O98" s="6" t="s">
         <v>153</v>
@@ -7885,7 +7904,7 @@
         <v>153</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S98" s="6" t="s">
         <v>153</v>
@@ -7897,10 +7916,10 @@
     <row r="99" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58551640455088005</v>
+        <v>0.91556514101691444</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>153</v>
@@ -7912,7 +7931,7 @@
         <v>153</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>153</v>
@@ -7939,13 +7958,13 @@
         <v>153</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R99" s="6" t="s">
         <v>153</v>
@@ -7954,16 +7973,16 @@
         <v>153</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86886316924477014</v>
+        <v>0.25825147210125643</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>153</v>
@@ -7972,10 +7991,10 @@
         <v>153</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>153</v>
@@ -8005,40 +8024,40 @@
         <v>153</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q100" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S100" s="6" t="s">
         <v>153</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3307208534225331</v>
+        <v>0.13523392163890946</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>153</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>153</v>
@@ -8050,25 +8069,25 @@
         <v>153</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M101" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>153</v>
@@ -8086,16 +8105,16 @@
     <row r="102" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92282600858772557</v>
+        <v>0.48827917988167657</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>153</v>
@@ -8119,7 +8138,7 @@
         <v>153</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M102" s="5" t="s">
         <v>153</v>
@@ -8131,10 +8150,10 @@
         <v>153</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R102" s="6" t="s">
         <v>153</v>
@@ -8149,10 +8168,10 @@
     <row r="103" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87073269450790758</v>
+        <v>0.43645167039444321</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>153</v>
@@ -8182,10 +8201,10 @@
         <v>153</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N103" s="6" t="s">
         <v>153</v>
@@ -8194,7 +8213,7 @@
         <v>153</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q103" s="6" t="s">
         <v>153</v>
@@ -8203,7 +8222,7 @@
         <v>153</v>
       </c>
       <c r="S103" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T103" s="6" t="s">
         <v>153</v>
@@ -8212,12 +8231,12 @@
     <row r="104" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29914938268133262</v>
+        <v>0.37512423672223438</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C104" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -8233,19 +8252,19 @@
         <v>153</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>153</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M104" s="5" t="s">
         <v>153</v>
@@ -8257,7 +8276,7 @@
         <v>153</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q104" s="6" t="s">
         <v>153</v>
@@ -8275,10 +8294,10 @@
     <row r="105" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77870461721156403</v>
+        <v>0.18026007104250497</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>153</v>
@@ -8290,7 +8309,7 @@
         <v>153</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>153</v>
@@ -8314,16 +8333,16 @@
         <v>153</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P105" s="6" t="s">
         <v>153</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R105" s="6" t="s">
         <v>153</v>
@@ -8338,19 +8357,19 @@
     <row r="106" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94639004690851036</v>
+        <v>0.96899014175903198</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>153</v>
@@ -8365,7 +8384,7 @@
         <v>153</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>153</v>
@@ -8377,7 +8396,7 @@
         <v>153</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O106" s="6" t="s">
         <v>153</v>
@@ -8401,10 +8420,10 @@
     <row r="107" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52004233557860235</v>
+        <v>0.27696817170588672</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>153</v>
@@ -8413,13 +8432,13 @@
         <v>153</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>153</v>
@@ -8440,16 +8459,16 @@
         <v>153</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O107" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R107" s="6" t="s">
         <v>153</v>
@@ -8464,22 +8483,22 @@
     <row r="108" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97766988982415304</v>
+        <v>0.23123972318413744</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>153</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>153</v>
@@ -8494,7 +8513,7 @@
         <v>153</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L108" s="6" t="s">
         <v>153</v>
@@ -8503,7 +8522,7 @@
         <v>153</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>153</v>
@@ -8527,10 +8546,10 @@
     <row r="109" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74275102817323835</v>
+        <v>0.65805801816956677</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>153</v>
@@ -8548,19 +8567,19 @@
         <v>153</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M109" s="5" t="s">
         <v>153</v>
@@ -8572,10 +8591,10 @@
         <v>153</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q109" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R109" s="6" t="s">
         <v>153</v>
@@ -8590,10 +8609,10 @@
     <row r="110" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6727453374487E-2</v>
+        <v>0.57199322883523906</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>153</v>
@@ -8602,7 +8621,7 @@
         <v>153</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>153</v>
@@ -8611,10 +8630,10 @@
         <v>153</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J110" s="6" t="s">
         <v>153</v>
@@ -8644,7 +8663,7 @@
         <v>153</v>
       </c>
       <c r="S110" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T110" s="6" t="s">
         <v>153</v>
@@ -8653,10 +8672,10 @@
     <row r="111" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35970749882907704</v>
+        <v>0.4531334774679342</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>153</v>
@@ -8668,7 +8687,7 @@
         <v>153</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>153</v>
@@ -8677,13 +8696,13 @@
         <v>153</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J111" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>153</v>
@@ -8704,7 +8723,7 @@
         <v>153</v>
       </c>
       <c r="R111" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S111" s="6" t="s">
         <v>153</v>
@@ -8716,10 +8735,10 @@
     <row r="112" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86070812552788067</v>
+        <v>0.99476989146840111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>153</v>
@@ -8728,7 +8747,7 @@
         <v>153</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>153</v>
@@ -8749,7 +8768,7 @@
         <v>153</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M112" s="5" t="s">
         <v>153</v>
@@ -8770,7 +8789,7 @@
         <v>153</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T112" s="6" t="s">
         <v>153</v>
@@ -8779,10 +8798,10 @@
     <row r="113" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28138097081933333</v>
+        <v>7.4604675724777691E-2</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>153</v>
@@ -8809,7 +8828,7 @@
         <v>153</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>153</v>
@@ -8824,7 +8843,7 @@
         <v>153</v>
       </c>
       <c r="P113" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q113" s="6" t="s">
         <v>153</v>
@@ -8833,7 +8852,7 @@
         <v>153</v>
       </c>
       <c r="S113" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T113" s="6" t="s">
         <v>153</v>
@@ -8842,10 +8861,10 @@
     <row r="114" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19055391540559441</v>
+        <v>0.37959102906965836</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>153</v>
@@ -8875,28 +8894,28 @@
         <v>153</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M114" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O114" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P114" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q114" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R114" s="6" t="s">
         <v>153</v>
       </c>
       <c r="S114" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T114" s="6" t="s">
         <v>153</v>
@@ -8905,10 +8924,10 @@
     <row r="115" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97705173126891331</v>
+        <v>0.18278911455675162</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>153</v>
@@ -8968,10 +8987,10 @@
     <row r="116" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82997428684844998</v>
+        <v>0.29433618761425928</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>153</v>
@@ -8980,10 +8999,10 @@
         <v>153</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>153</v>
@@ -9001,7 +9020,7 @@
         <v>153</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>153</v>
@@ -9013,7 +9032,7 @@
         <v>153</v>
       </c>
       <c r="P116" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q116" s="6" t="s">
         <v>153</v>
@@ -9031,10 +9050,10 @@
     <row r="117" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40212426957814873</v>
+        <v>0.46301845044073786</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>153</v>
@@ -9043,7 +9062,7 @@
         <v>153</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>153</v>
@@ -9064,13 +9083,13 @@
         <v>153</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O117" s="6" t="s">
         <v>153</v>
@@ -9094,22 +9113,22 @@
     <row r="118" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4550993182056664</v>
+        <v>1.3324218085157047E-2</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>153</v>
@@ -9118,13 +9137,13 @@
         <v>153</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L118" s="6" t="s">
         <v>153</v>
@@ -9133,7 +9152,7 @@
         <v>153</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O118" s="6" t="s">
         <v>153</v>
@@ -9145,7 +9164,7 @@
         <v>153</v>
       </c>
       <c r="R118" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S118" s="6" t="s">
         <v>153</v>
@@ -9157,13 +9176,13 @@
     <row r="119" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30132881856602722</v>
+        <v>0.71869757331858575</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>153</v>
@@ -9175,7 +9194,7 @@
         <v>153</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>153</v>
@@ -9190,7 +9209,7 @@
         <v>153</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M119" s="5" t="s">
         <v>153</v>
@@ -9211,7 +9230,7 @@
         <v>153</v>
       </c>
       <c r="S119" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T119" s="6" t="s">
         <v>153</v>
@@ -9220,10 +9239,10 @@
     <row r="120" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.845353534226529E-2</v>
+        <v>0.99546885221639214</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>153</v>
@@ -9232,7 +9251,7 @@
         <v>153</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>153</v>
@@ -9244,13 +9263,13 @@
         <v>153</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J120" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L120" s="6" t="s">
         <v>153</v>
@@ -9265,7 +9284,7 @@
         <v>153</v>
       </c>
       <c r="P120" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q120" s="6" t="s">
         <v>153</v>
@@ -9283,10 +9302,10 @@
     <row r="121" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26372980467824758</v>
+        <v>2.1403936133685297E-2</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>153</v>
@@ -9298,7 +9317,7 @@
         <v>153</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>153</v>
@@ -9325,10 +9344,10 @@
         <v>154</v>
       </c>
       <c r="O121" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P121" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q121" s="6" t="s">
         <v>153</v>
@@ -9337,7 +9356,7 @@
         <v>153</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T121" s="6" t="s">
         <v>153</v>
@@ -9346,10 +9365,10 @@
     <row r="122" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20131800739400418</v>
+        <v>0.88844427946640236</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>153</v>
@@ -9379,10 +9398,10 @@
         <v>153</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N122" s="6" t="s">
         <v>153</v>
@@ -9391,7 +9410,7 @@
         <v>153</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q122" s="6" t="s">
         <v>153</v>
@@ -9400,7 +9419,7 @@
         <v>153</v>
       </c>
       <c r="S122" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T122" s="6" t="s">
         <v>153</v>
@@ -9409,10 +9428,10 @@
     <row r="123" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84737225178315601</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>172</v>
+        <v>0.97562967689344515</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>153</v>
@@ -9472,10 +9491,10 @@
     <row r="124" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25183773689041455</v>
+        <v>0.24427115328950877</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>153</v>
@@ -9505,7 +9524,7 @@
         <v>153</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M124" s="5" t="s">
         <v>153</v>
@@ -9517,10 +9536,10 @@
         <v>153</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R124" s="6" t="s">
         <v>153</v>
@@ -9535,13 +9554,13 @@
     <row r="125" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74702489862778065</v>
+        <v>0.60297625988312586</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>153</v>
@@ -9550,10 +9569,10 @@
         <v>153</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>153</v>
@@ -9568,25 +9587,25 @@
         <v>153</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M125" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O125" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q125" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R125" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S125" s="6" t="s">
         <v>153</v>
@@ -9598,7 +9617,7 @@
     <row r="126" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42837183097583997</v>
+        <v>0.28103573719390595</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>151</v>
@@ -9661,10 +9680,10 @@
     <row r="127" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82423839751288874</v>
+        <v>0.42421703888074036</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>153</v>
@@ -9688,7 +9707,7 @@
         <v>153</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K127" s="6" t="s">
         <v>153</v>
@@ -9706,7 +9725,7 @@
         <v>153</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q127" s="6" t="s">
         <v>153</v>
@@ -9723,11 +9742,11 @@
     </row>
     <row r="128" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
-        <f t="shared" ref="A128:A158" ca="1" si="4">RAND()</f>
-        <v>0.20509846958200806</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1071549584025591E-2</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>153</v>
@@ -9739,25 +9758,25 @@
         <v>153</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>153</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>153</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K128" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M128" s="5" t="s">
         <v>153</v>
@@ -9769,7 +9788,7 @@
         <v>153</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q128" s="6" t="s">
         <v>153</v>
@@ -9786,11 +9805,11 @@
     </row>
     <row r="129" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.13452238420313023</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.2694768006781172E-2</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>153</v>
@@ -9799,7 +9818,7 @@
         <v>153</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>153</v>
@@ -9814,19 +9833,19 @@
         <v>153</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K129" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M129" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O129" s="6" t="s">
         <v>153</v>
@@ -9838,7 +9857,7 @@
         <v>153</v>
       </c>
       <c r="R129" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S129" s="6" t="s">
         <v>153</v>
@@ -9849,11 +9868,11 @@
     </row>
     <row r="130" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.29597335948015657</v>
+        <f t="shared" ref="A130:A163" ca="1" si="4">RAND()</f>
+        <v>0.10132189859217144</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>153</v>
@@ -9883,10 +9902,10 @@
         <v>153</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N130" s="6" t="s">
         <v>153</v>
@@ -9895,7 +9914,7 @@
         <v>153</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q130" s="6" t="s">
         <v>153</v>
@@ -9904,7 +9923,7 @@
         <v>153</v>
       </c>
       <c r="S130" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T130" s="6" t="s">
         <v>153</v>
@@ -9913,13 +9932,13 @@
     <row r="131" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62908467868962314</v>
+        <v>0.87772552787344305</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>153</v>
@@ -9976,13 +9995,13 @@
     <row r="132" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23200634418376487</v>
+        <v>0.66585493691026765</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>153</v>
@@ -9991,7 +10010,7 @@
         <v>153</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G132" s="6" t="s">
         <v>153</v>
@@ -10009,7 +10028,7 @@
         <v>153</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M132" s="5" t="s">
         <v>153</v>
@@ -10018,10 +10037,10 @@
         <v>153</v>
       </c>
       <c r="O132" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P132" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q132" s="6" t="s">
         <v>153</v>
@@ -10039,10 +10058,10 @@
     <row r="133" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71609880285473748</v>
+        <v>0.1987633461257553</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>153</v>
@@ -10051,7 +10070,7 @@
         <v>153</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>153</v>
@@ -10063,28 +10082,28 @@
         <v>153</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J133" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M133" s="5" t="s">
         <v>153</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O133" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q133" s="6" t="s">
         <v>153</v>
@@ -10102,10 +10121,10 @@
     <row r="134" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47214888663519328</v>
+        <v>1.7297904348708371E-2</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>153</v>
@@ -10117,7 +10136,7 @@
         <v>153</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>153</v>
@@ -10132,7 +10151,7 @@
         <v>153</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L134" s="6" t="s">
         <v>153</v>
@@ -10141,7 +10160,7 @@
         <v>153</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O134" s="6" t="s">
         <v>153</v>
@@ -10165,19 +10184,19 @@
     <row r="135" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61374781444790594</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>96</v>
+        <v>0.2915615943737363</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>153</v>
@@ -10189,13 +10208,13 @@
         <v>153</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J135" s="6" t="s">
         <v>153</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L135" s="6" t="s">
         <v>153</v>
@@ -10204,7 +10223,7 @@
         <v>153</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O135" s="6" t="s">
         <v>153</v>
@@ -10219,7 +10238,7 @@
         <v>153</v>
       </c>
       <c r="S135" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T135" s="6" t="s">
         <v>153</v>
@@ -10228,10 +10247,10 @@
     <row r="136" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44521938920421034</v>
+        <v>0.97147222991384108</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>153</v>
@@ -10243,10 +10262,10 @@
         <v>153</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>153</v>
@@ -10291,10 +10310,10 @@
     <row r="137" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90916234133839824</v>
+        <v>0.39046702901187713</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>153</v>
@@ -10303,10 +10322,10 @@
         <v>153</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>153</v>
@@ -10333,7 +10352,7 @@
         <v>153</v>
       </c>
       <c r="O137" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P137" s="6" t="s">
         <v>153</v>
@@ -10354,10 +10373,10 @@
     <row r="138" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78221854325538909</v>
+        <v>0.67261062270817429</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>153</v>
@@ -10378,7 +10397,7 @@
         <v>153</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J138" s="6" t="s">
         <v>153</v>
@@ -10390,7 +10409,7 @@
         <v>153</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N138" s="6" t="s">
         <v>153</v>
@@ -10408,7 +10427,7 @@
         <v>153</v>
       </c>
       <c r="S138" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T138" s="6" t="s">
         <v>153</v>
@@ -10417,19 +10436,19 @@
     <row r="139" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47166811378518092</v>
+        <v>8.4694166969274232E-2</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>153</v>
@@ -10447,7 +10466,7 @@
         <v>153</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L139" s="6" t="s">
         <v>153</v>
@@ -10462,7 +10481,7 @@
         <v>153</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q139" s="6" t="s">
         <v>153</v>
@@ -10471,7 +10490,7 @@
         <v>153</v>
       </c>
       <c r="S139" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T139" s="6" t="s">
         <v>153</v>
@@ -10480,10 +10499,10 @@
     <row r="140" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55589116954664131</v>
+        <v>0.87894358662457006</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>153</v>
@@ -10543,10 +10562,10 @@
     <row r="141" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1064994847295013E-2</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>171</v>
+        <v>0.83814914534581064</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>153</v>
@@ -10555,10 +10574,10 @@
         <v>153</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>153</v>
@@ -10570,7 +10589,7 @@
         <v>153</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K141" s="6" t="s">
         <v>153</v>
@@ -10588,16 +10607,16 @@
         <v>153</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S141" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T141" s="6" t="s">
         <v>153</v>
@@ -10606,13 +10625,13 @@
     <row r="142" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6544362918715787</v>
+        <v>0.37377937230427527</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>153</v>
@@ -10624,7 +10643,7 @@
         <v>153</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>153</v>
@@ -10651,16 +10670,16 @@
         <v>153</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R142" s="6" t="s">
         <v>153</v>
       </c>
       <c r="S142" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T142" s="6" t="s">
         <v>153</v>
@@ -10669,19 +10688,19 @@
     <row r="143" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56611206983895646</v>
+        <v>0.5600109437791424</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>153</v>
@@ -10714,7 +10733,7 @@
         <v>153</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>153</v>
@@ -10732,10 +10751,10 @@
     <row r="144" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7484935915863743</v>
+        <v>0.70219103798742666</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>153</v>
@@ -10759,16 +10778,16 @@
         <v>153</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K144" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N144" s="6" t="s">
         <v>153</v>
@@ -10777,7 +10796,7 @@
         <v>153</v>
       </c>
       <c r="P144" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>153</v>
@@ -10795,10 +10814,10 @@
     <row r="145" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49982937068355315</v>
+        <v>0.75050169478692996</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>153</v>
@@ -10807,10 +10826,10 @@
         <v>153</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>153</v>
@@ -10822,13 +10841,13 @@
         <v>153</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M145" s="5" t="s">
         <v>153</v>
@@ -10840,7 +10859,7 @@
         <v>153</v>
       </c>
       <c r="P145" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>153</v>
@@ -10858,10 +10877,10 @@
     <row r="146" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63614221152119843</v>
+        <v>0.16149816099562864</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>153</v>
@@ -10870,16 +10889,16 @@
         <v>153</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>153</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>153</v>
@@ -10897,7 +10916,7 @@
         <v>153</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O146" s="6" t="s">
         <v>153</v>
@@ -10909,10 +10928,10 @@
         <v>153</v>
       </c>
       <c r="R146" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S146" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T146" s="6" t="s">
         <v>153</v>
@@ -10921,10 +10940,10 @@
     <row r="147" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75473549130045137</v>
+        <v>0.12076896470788256</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>153</v>
@@ -10933,16 +10952,16 @@
         <v>153</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>153</v>
@@ -10969,13 +10988,13 @@
         <v>153</v>
       </c>
       <c r="Q147" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R147" s="6" t="s">
         <v>153</v>
       </c>
       <c r="S147" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T147" s="6" t="s">
         <v>153</v>
@@ -10984,10 +11003,10 @@
     <row r="148" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1181349310145157E-2</v>
+        <v>0.54695152001597525</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>153</v>
@@ -11002,7 +11021,7 @@
         <v>153</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>153</v>
@@ -11029,10 +11048,10 @@
         <v>153</v>
       </c>
       <c r="P148" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q148" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R148" s="6" t="s">
         <v>153</v>
@@ -11047,10 +11066,10 @@
     <row r="149" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15085371907177902</v>
+        <v>5.7251146513799034E-2</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>153</v>
@@ -11059,7 +11078,7 @@
         <v>153</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>153</v>
@@ -11077,7 +11096,7 @@
         <v>153</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L149" s="6" t="s">
         <v>153</v>
@@ -11092,7 +11111,7 @@
         <v>153</v>
       </c>
       <c r="P149" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q149" s="6" t="s">
         <v>153</v>
@@ -11110,10 +11129,10 @@
     <row r="150" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90031583269090709</v>
+        <v>0.78659219229581612</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>153</v>
@@ -11122,10 +11141,10 @@
         <v>153</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>153</v>
@@ -11134,13 +11153,13 @@
         <v>153</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L150" s="6" t="s">
         <v>153</v>
@@ -11149,7 +11168,7 @@
         <v>153</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O150" s="6" t="s">
         <v>153</v>
@@ -11173,10 +11192,10 @@
     <row r="151" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5787862034622917</v>
+        <v>0.59546312556670111</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>153</v>
@@ -11203,16 +11222,16 @@
         <v>153</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L151" s="6" t="s">
         <v>153</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O151" s="6" t="s">
         <v>153</v>
@@ -11236,10 +11255,10 @@
     <row r="152" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85978360066013026</v>
+        <v>0.16988236598494244</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>153</v>
@@ -11251,7 +11270,7 @@
         <v>153</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>153</v>
@@ -11263,7 +11282,7 @@
         <v>153</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>153</v>
@@ -11284,7 +11303,7 @@
         <v>153</v>
       </c>
       <c r="Q152" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R152" s="6" t="s">
         <v>153</v>
@@ -11299,10 +11318,10 @@
     <row r="153" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22312231998724086</v>
+        <v>0.4532680607094538</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>153</v>
@@ -11311,7 +11330,7 @@
         <v>153</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>153</v>
@@ -11332,7 +11351,7 @@
         <v>153</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M153" s="5" t="s">
         <v>153</v>
@@ -11353,7 +11372,7 @@
         <v>153</v>
       </c>
       <c r="S153" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T153" s="6" t="s">
         <v>153</v>
@@ -11362,10 +11381,10 @@
     <row r="154" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70473545075250821</v>
+        <v>0.89320965551139309</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>153</v>
@@ -11380,7 +11399,7 @@
         <v>153</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>153</v>
@@ -11416,7 +11435,7 @@
         <v>153</v>
       </c>
       <c r="S154" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T154" s="6" t="s">
         <v>153</v>
@@ -11425,10 +11444,10 @@
     <row r="155" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69054879942307568</v>
+        <v>0.46532050010079429</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>153</v>
@@ -11440,7 +11459,7 @@
         <v>153</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>153</v>
@@ -11452,7 +11471,7 @@
         <v>153</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K155" s="6" t="s">
         <v>153</v>
@@ -11464,13 +11483,13 @@
         <v>153</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O155" s="6" t="s">
         <v>153</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q155" s="6" t="s">
         <v>153</v>
@@ -11488,13 +11507,13 @@
     <row r="156" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25751459414194189</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>176</v>
+        <v>0.23804658434669856</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>153</v>
@@ -11542,7 +11561,7 @@
         <v>153</v>
       </c>
       <c r="S156" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T156" s="6" t="s">
         <v>153</v>
@@ -11551,10 +11570,10 @@
     <row r="157" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40974751598875192</v>
+        <v>0.88565344500639065</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>153</v>
@@ -11566,7 +11585,7 @@
         <v>153</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G157" s="6" t="s">
         <v>153</v>
@@ -11578,13 +11597,13 @@
         <v>153</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K157" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M157" s="5" t="s">
         <v>153</v>
@@ -11593,16 +11612,16 @@
         <v>153</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q157" s="6" t="s">
         <v>153</v>
       </c>
       <c r="R157" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S157" s="6" t="s">
         <v>153</v>
@@ -11614,10 +11633,10 @@
     <row r="158" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22865465760540293</v>
+        <v>0.76043148373130676</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>153</v>
@@ -11626,7 +11645,7 @@
         <v>153</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>153</v>
@@ -11644,7 +11663,7 @@
         <v>153</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L158" s="6" t="s">
         <v>153</v>
@@ -11653,7 +11672,7 @@
         <v>153</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O158" s="6" t="s">
         <v>153</v>
@@ -11665,7 +11684,7 @@
         <v>153</v>
       </c>
       <c r="R158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S158" s="6" t="s">
         <v>153</v>
@@ -11675,8 +11694,13 @@
       </c>
     </row>
     <row r="159" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="8"/>
-      <c r="B159" s="5"/>
+      <c r="A159" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.97544756143489253</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="C159" s="6" t="s">
         <v>153</v>
       </c>
@@ -11684,10 +11708,10 @@
         <v>153</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G159" s="6" t="s">
         <v>153</v>
@@ -11733,10 +11757,15 @@
       </c>
     </row>
     <row r="160" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="8"/>
-      <c r="B160" s="5"/>
+      <c r="A160" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.59861355146760387</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C160" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>153</v>
@@ -11757,7 +11786,7 @@
         <v>153</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K160" s="6" t="s">
         <v>153</v>
@@ -11775,7 +11804,7 @@
         <v>153</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q160" s="6" t="s">
         <v>153</v>
@@ -11791,8 +11820,13 @@
       </c>
     </row>
     <row r="161" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="8"/>
-      <c r="B161" s="5"/>
+      <c r="A161" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.92070468938486305</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="C161" s="6" t="s">
         <v>153</v>
       </c>
@@ -11833,7 +11867,7 @@
         <v>153</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q161" s="6" t="s">
         <v>153</v>
@@ -11849,8 +11883,13 @@
       </c>
     </row>
     <row r="162" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="8"/>
-      <c r="B162" s="5"/>
+      <c r="A162" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.17727528006736237</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="C162" s="6" t="s">
         <v>153</v>
       </c>
@@ -11858,10 +11897,10 @@
         <v>153</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>153</v>
@@ -11897,18 +11936,23 @@
         <v>153</v>
       </c>
       <c r="R162" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S162" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T162" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="8"/>
-      <c r="B163" s="5"/>
+      <c r="A163" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.68412127656059829</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="C163" s="6" t="s">
         <v>153</v>
       </c>
@@ -11916,10 +11960,10 @@
         <v>153</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>153</v>
@@ -11955,7 +11999,7 @@
         <v>153</v>
       </c>
       <c r="R163" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S163" s="6" t="s">
         <v>153</v>
@@ -12255,7 +12299,7 @@
       </c>
     </row>
     <row r="169" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6" t="s">
         <v>153</v>
@@ -12263,171 +12307,114 @@
       <c r="D169" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J169" s="6" t="s">
+      <c r="E169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J169" s="10" t="s">
         <v>153</v>
       </c>
       <c r="K169" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="M169" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="N169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="P169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="R169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="S169" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="T169" s="6" t="s">
+      <c r="L169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="M169" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="N169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="P169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="R169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="S169" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="T169" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="170" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="17"/>
-      <c r="B170" s="5"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="J170" s="10" t="s">
+      <c r="D170" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J170" s="14" t="s">
         <v>153</v>
       </c>
       <c r="K170" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="L170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="M170" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="N170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="O170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="P170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="R170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="S170" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="T170" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="20"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="I171" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K171" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="M171" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="N171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="O171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="P171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="R171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="S171" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="T171" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
+      <c r="L170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M170" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="P170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="R170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="S170" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="T170" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="172" spans="1:20" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="173" spans="1:20" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="174" spans="1:20" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -12454,10 +12441,9 @@
     <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A171">
-    <sortCondition ref="A2:A171"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A170">
+    <sortCondition ref="A2:A170"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/databaze_filmu.xlsx
+++ b/databaze_filmu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c678b8341a1804/Dokumenty/carousely/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{F0DD17AA-57C3-401E-A619-37D4E16B6A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71575A5C-A712-44AE-9749-E28D505B270C}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{F0DD17AA-57C3-401E-A619-37D4E16B6A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A5C0E0F-EC59-45AA-96C0-5548B97AEAE3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="databaze_filmu" sheetId="3" r:id="rId1"/>
@@ -1476,7 +1476,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="VŠECHNY_FILMY" displayName="VŠECHNY_FILMY" ref="A1:T170">
-  <autoFilter ref="A1:T170" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
+  <autoFilter ref="A1:T170" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T170">
     <sortCondition ref="A1:A170"/>
   </sortState>
@@ -1711,9 +1717,9 @@
   </sheetPr>
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U163" sqref="U163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1802,10 +1808,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.92235655832425711</v>
+        <v>0.56131895000087428</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>57</v>
@@ -1865,10 +1871,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9227435974657644</v>
+        <v>0.11884082732671319</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -1928,10 +1934,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9299054860233148</v>
+        <v>0.3201540440127042</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1991,10 +1997,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99333240485764707</v>
+        <v>0.30019024750288592</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>54</v>
@@ -2054,16 +2060,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36437187084221967</v>
+        <v>0.72668298833018763</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>153</v>
@@ -2117,10 +2123,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64879541012090758</v>
+        <v>0.80307263875865631</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>98</v>
@@ -2180,10 +2186,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81370753745171565</v>
+        <v>0.63531883990805471</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>104</v>
@@ -2243,10 +2249,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24035472003423641</v>
+        <v>0.40200148366477106</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
@@ -2306,10 +2312,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81757245305100634</v>
+        <v>0.40409063664739286</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>147</v>
@@ -2369,10 +2375,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58807364307867416</v>
+        <v>0.20313217245604376</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>150</v>
@@ -2432,10 +2438,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94616726016072061</v>
+        <v>0.11076356144614485</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>145</v>
@@ -2495,10 +2501,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3383439727505162E-2</v>
+        <v>0.57162049056511122</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>123</v>
@@ -2558,10 +2564,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11005499032683674</v>
+        <v>0.31124754773189844</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>168</v>
@@ -2624,7 +2630,7 @@
     <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25281358944039134</v>
+        <v>0.29013224642469571</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2684,10 +2690,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37234659750021648</v>
+        <v>0.15513632680714473</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>116</v>
@@ -2747,10 +2753,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72392292294294858</v>
+        <v>0.45792037956528142</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>143</v>
@@ -2810,10 +2816,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70953353595548219</v>
+        <v>0.75022088293955147</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>152</v>
@@ -2873,10 +2879,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75251966819156491</v>
+        <v>0.93766660618215969</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
@@ -2936,10 +2942,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30452576757986782</v>
+        <v>0.69791234370536259</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>115</v>
@@ -2999,10 +3005,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70093701443196221</v>
+        <v>0.4213226437789771</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>141</v>
@@ -3062,10 +3068,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7656477535525078</v>
+        <v>0.44673155895267869</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>62</v>
@@ -3125,10 +3131,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56561903667945235</v>
+        <v>0.61300993286841476</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>87</v>
@@ -3188,10 +3194,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14870852215118913</v>
+        <v>0.74994037173939465</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>89</v>
@@ -3251,10 +3257,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85339512233228454</v>
+        <v>0.45244932307441965</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>132</v>
@@ -3314,10 +3320,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85276420969000355</v>
+        <v>0.20586130570088412</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -3377,10 +3383,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7619376760753156</v>
+        <v>0.54203309719093506</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>109</v>
@@ -3440,10 +3446,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89513142451297512</v>
+        <v>0.54494816369420562</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>172</v>
@@ -3503,10 +3509,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85851522570261796</v>
+        <v>0.66336728066567052</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>91</v>
@@ -3566,16 +3572,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75387595863603207</v>
+        <v>0.84948352571860852</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>153</v>
@@ -3629,10 +3635,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15922854099300554</v>
+        <v>5.607640585618523E-2</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -3692,10 +3698,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3085703285707702E-2</v>
+        <v>0.23645058889101456</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>9</v>
@@ -3755,10 +3761,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6087757579288771E-2</v>
+        <v>0.42810925047961856</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>53</v>
@@ -3818,10 +3824,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.63920534430255382</v>
+        <v>0.6927176034640542</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>122</v>
@@ -3881,10 +3887,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21449741664811095</v>
+        <v>0.81955851801447155</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>45</v>
@@ -3944,10 +3950,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16359987431846834</v>
+        <v>0.66491315760834213</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>130</v>
@@ -4007,10 +4013,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52451521889253783</v>
+        <v>0.35576246987923843</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>110</v>
@@ -4070,10 +4076,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12701628509396945</v>
+        <v>0.20570458541962355</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>127</v>
@@ -4133,10 +4139,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14784978878638877</v>
+        <v>0.72794033314332862</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>31</v>
@@ -4196,10 +4202,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2801480725782014</v>
+        <v>0.22872710779440897</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>159</v>
@@ -4262,7 +4268,7 @@
     <row r="41" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20224031666133024</v>
+        <v>0.76074872558348805</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>96</v>
@@ -4322,10 +4328,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76580999084570889</v>
+        <v>0.73801180099067276</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>19</v>
@@ -4385,10 +4391,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5912969639995795E-2</v>
+        <v>0.11001566746635871</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>163</v>
@@ -4448,10 +4454,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72599207808735711</v>
+        <v>0.48247319260892163</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>13</v>
@@ -4511,10 +4517,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85686900219594886</v>
+        <v>0.65856550650463996</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>44</v>
@@ -4574,10 +4580,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22016923731468319</v>
+        <v>0.88869370633392863</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>41</v>
@@ -4637,10 +4643,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26003328874365428</v>
+        <v>0.57460087699263418</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>28</v>
@@ -4700,16 +4706,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42000897617976796</v>
+        <v>0.41289335517690184</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>153</v>
@@ -4763,10 +4769,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85071179639371952</v>
+        <v>0.40041547831764268</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>95</v>
@@ -4826,10 +4832,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58530238820658487</v>
+        <v>0.75487847181288914</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>47</v>
@@ -4889,10 +4895,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49524340949193935</v>
+        <v>0.55947166534618165</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>58</v>
@@ -4952,10 +4958,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31924803409712244</v>
+        <v>0.449603167417848</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>40</v>
@@ -5015,10 +5021,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34463317461237719</v>
+        <v>0.35330499152905559</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>99</v>
@@ -5078,10 +5084,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84414641507726162</v>
+        <v>0.93541450953564664</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>111</v>
@@ -5141,10 +5147,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71515328192945982</v>
+        <v>0.71609359955229357</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>135</v>
@@ -5204,10 +5210,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85722318539134212</v>
+        <v>0.84760480636344082</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>25</v>
@@ -5267,10 +5273,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51381515191952642</v>
+        <v>0.65367102306826597</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>171</v>
@@ -5330,10 +5336,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88090519794850963</v>
+        <v>0.32290482548577415</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>43</v>
@@ -5393,10 +5399,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38483065730954691</v>
+        <v>1.3809031256545978E-2</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>139</v>
@@ -5456,10 +5462,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10837946901753437</v>
+        <v>0.26560503669417868</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>26</v>
@@ -5522,7 +5528,7 @@
     <row r="61" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58479748154158473</v>
+        <v>0.72146300890191017</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>37</v>
@@ -5585,7 +5591,7 @@
     <row r="62" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25153792226694183</v>
+        <v>0.947982759193435</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>121</v>
@@ -5645,10 +5651,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.777822154651969E-2</v>
+        <v>0.82645520248558646</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>137</v>
@@ -5708,10 +5714,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3831507469331048E-2</v>
+        <v>0.99287772639623761</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>126</v>
@@ -5771,10 +5777,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38325415788948536</v>
+        <v>0.76890431602130849</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>30</v>
@@ -5834,10 +5840,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>0.69230280842726</v>
+        <v>0.85094907142466469</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>136</v>
@@ -5897,10 +5903,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26168031148652304</v>
+        <v>0.96900081382839998</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>138</v>
@@ -5960,10 +5966,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69638652579825655</v>
+        <v>0.7995594114088016</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>113</v>
@@ -6023,10 +6029,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19853421867874799</v>
+        <v>0.63837492907680526</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>85</v>
@@ -6086,10 +6092,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68966083772576769</v>
+        <v>0.24551320082324934</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>79</v>
@@ -6149,10 +6155,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26376814007349225</v>
+        <v>3.676946309415452E-2</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>15</v>
@@ -6212,10 +6218,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1053685529609503E-2</v>
+        <v>0.7189206715490678</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>59</v>
@@ -6275,10 +6281,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15522255946789654</v>
+        <v>0.51202391628683208</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>156</v>
@@ -6338,10 +6344,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44698331427050653</v>
+        <v>0.42142736139162851</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>129</v>
@@ -6401,10 +6407,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22623837254471191</v>
+        <v>0.51410777687375753</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>148</v>
@@ -6464,10 +6470,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7323745335758876E-3</v>
+        <v>0.95396061405432953</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>169</v>
@@ -6527,10 +6533,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93582508891010074</v>
+        <v>0.39420354444262495</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>94</v>
@@ -6590,10 +6596,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95422185246867963</v>
+        <v>0.28693120359343305</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>101</v>
@@ -6653,10 +6659,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23190633139439198</v>
+        <v>0.2285343209817069</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>162</v>
@@ -6716,10 +6722,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17112409186351651</v>
+        <v>0.6857196534745128</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>50</v>
@@ -6779,10 +6785,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87235600964313642</v>
+        <v>0.90510551160236818</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>165</v>
@@ -6842,10 +6848,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42688729934260417</v>
+        <v>8.1074100168581742E-2</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>175</v>
@@ -6905,10 +6911,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5299627816655138</v>
+        <v>0.78396219982386905</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>161</v>
@@ -6968,10 +6974,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23645946988276756</v>
+        <v>0.89379098202099228</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>119</v>
@@ -7031,10 +7037,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99469298602496037</v>
+        <v>9.9540835564603136E-2</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>23</v>
@@ -7094,10 +7100,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12965091233154125</v>
+        <v>0.61463577313106899</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>117</v>
@@ -7157,10 +7163,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85799739088012716</v>
+        <v>0.14125290843094351</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>17</v>
@@ -7223,7 +7229,7 @@
     <row r="88" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68058732655734644</v>
+        <v>0.7571194770741132</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>178</v>
@@ -7283,10 +7289,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78484121679256325</v>
+        <v>4.8092709127000366E-2</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>134</v>
@@ -7346,10 +7352,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8499858104381055</v>
+        <v>0.53165020165687638</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>173</v>
@@ -7409,10 +7415,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91471761223695314</v>
+        <v>0.89825869096537592</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>118</v>
@@ -7472,10 +7478,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13369688203503372</v>
+        <v>0.49931715874760618</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>103</v>
@@ -7535,10 +7541,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64068653523807895</v>
+        <v>0.63082951396802611</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>34</v>
@@ -7598,10 +7604,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35789460203206247</v>
+        <v>0.34436631389024919</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>125</v>
@@ -7661,10 +7667,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58860019717707535</v>
+        <v>0.85038672164470364</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>102</v>
@@ -7724,10 +7730,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3868980734131684</v>
+        <v>0.37866004944059806</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>149</v>
@@ -7787,10 +7793,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70632333457293783</v>
+        <v>0.86403585354874257</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>38</v>
@@ -7850,10 +7856,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <f t="shared" ref="A98:A129" ca="1" si="3">RAND()</f>
-        <v>0.69440040579122608</v>
+        <v>0.43682808527160666</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>55</v>
@@ -7913,10 +7919,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91556514101691444</v>
+        <v>4.5047510179202166E-2</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>8</v>
@@ -7976,10 +7982,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25825147210125643</v>
+        <v>0.81794159223574092</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>166</v>
@@ -8039,10 +8045,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13523392163890946</v>
+        <v>0.30495880055738178</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>35</v>
@@ -8102,10 +8108,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48827917988167657</v>
+        <v>0.36721279031637299</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>11</v>
@@ -8165,10 +8171,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43645167039444321</v>
+        <v>0.43335581016939351</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>22</v>
@@ -8228,10 +8234,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37512423672223438</v>
+        <v>0.50566143775732819</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>84</v>
@@ -8291,10 +8297,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18026007104250497</v>
+        <v>0.99569191221347397</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>77</v>
@@ -8354,10 +8360,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96899014175903198</v>
+        <v>0.59982864877726727</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>158</v>
@@ -8417,10 +8423,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27696817170588672</v>
+        <v>0.90048783197926596</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>83</v>
@@ -8480,10 +8486,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23123972318413744</v>
+        <v>0.2943438162225448</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>51</v>
@@ -8543,10 +8549,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65805801816956677</v>
+        <v>0.75458037257893684</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>36</v>
@@ -8606,10 +8612,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57199322883523906</v>
+        <v>0.33825562530743758</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>174</v>
@@ -8669,10 +8675,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4531334774679342</v>
+        <v>0.93604525121117044</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>49</v>
@@ -8732,10 +8738,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99476989146840111</v>
+        <v>3.375435807187166E-2</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>120</v>
@@ -8795,10 +8801,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4604675724777691E-2</v>
+        <v>6.781051746453659E-2</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>140</v>
@@ -8858,10 +8864,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37959102906965836</v>
+        <v>0.10383243153597033</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>142</v>
@@ -8921,10 +8927,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18278911455675162</v>
+        <v>0.50996415236341386</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>86</v>
@@ -8984,10 +8990,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29433618761425928</v>
+        <v>0.16214916962433967</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>81</v>
@@ -9047,10 +9053,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46301845044073786</v>
+        <v>0.73472477852915141</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>157</v>
@@ -9110,10 +9116,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3324218085157047E-2</v>
+        <v>0.74686532103330372</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>80</v>
@@ -9176,7 +9182,7 @@
     <row r="119" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71869757331858575</v>
+        <v>0.54966684377843711</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>106</v>
@@ -9236,10 +9242,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99546885221639214</v>
+        <v>0.95205634622667423</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>32</v>
@@ -9299,10 +9305,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1403936133685297E-2</v>
+        <v>0.66590812941555222</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>1</v>
@@ -9362,10 +9368,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88844427946640236</v>
+        <v>0.45391295552704725</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>92</v>
@@ -9425,10 +9431,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97562967689344515</v>
+        <v>0.84777467771142134</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>24</v>
@@ -9488,10 +9494,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24427115328950877</v>
+        <v>0.89734780723948027</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>78</v>
@@ -9554,7 +9560,7 @@
     <row r="125" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60297625988312586</v>
+        <v>0.58717063355476562</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>133</v>
@@ -9617,7 +9623,7 @@
     <row r="126" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28103573719390595</v>
+        <v>0.15258015437269346</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>151</v>
@@ -9677,10 +9683,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42421703888074036</v>
+        <v>0.57452449916336445</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>100</v>
@@ -9740,10 +9746,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1071549584025591E-2</v>
+        <v>0.5705723661316594</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>46</v>
@@ -9803,10 +9809,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2694768006781172E-2</v>
+        <v>0.5398667394047485</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>177</v>
@@ -9866,10 +9872,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <f t="shared" ref="A130:A163" ca="1" si="4">RAND()</f>
-        <v>0.10132189859217144</v>
+        <v>0.57420455349983723</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>88</v>
@@ -9929,16 +9935,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87772552787344305</v>
+        <v>0.56313722145167244</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>153</v>
@@ -9992,10 +9998,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66585493691026765</v>
+        <v>6.1316204577569922E-2</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>155</v>
@@ -10055,10 +10061,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1987633461257553</v>
+        <v>0.83457736297307317</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>39</v>
@@ -10118,10 +10124,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7297904348708371E-2</v>
+        <v>0.15273790877237492</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>16</v>
@@ -10181,10 +10187,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2915615943737363</v>
+        <v>0.44130997173697684</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>61</v>
@@ -10244,10 +10250,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97147222991384108</v>
+        <v>0.26383700577628622</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>108</v>
@@ -10307,10 +10313,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39046702901187713</v>
+        <v>0.52663047455742384</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>60</v>
@@ -10370,10 +10376,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67261062270817429</v>
+        <v>0.75477865303817793</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>124</v>
@@ -10433,10 +10439,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4694166969274232E-2</v>
+        <v>0.97204838307179686</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>164</v>
@@ -10496,10 +10502,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87894358662457006</v>
+        <v>6.791335308520341E-2</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>105</v>
@@ -10559,10 +10565,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83814914534581064</v>
+        <v>0.7342040612202172</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>128</v>
@@ -10625,7 +10631,7 @@
     <row r="142" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37377937230427527</v>
+        <v>7.7307422430512696E-2</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>176</v>
@@ -10685,10 +10691,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5600109437791424</v>
+        <v>0.61117532867474367</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>56</v>
@@ -10748,10 +10754,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70219103798742666</v>
+        <v>0.8614083110047891</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>144</v>
@@ -10811,10 +10817,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75050169478692996</v>
+        <v>6.6279104673826472E-2</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>167</v>
@@ -10874,10 +10880,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16149816099562864</v>
+        <v>0.12930571351915998</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>93</v>
@@ -10937,10 +10943,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12076896470788256</v>
+        <v>0.35249475747024628</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>4</v>
@@ -11000,10 +11006,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54695152001597525</v>
+        <v>0.94528202823968588</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>52</v>
@@ -11063,10 +11069,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7251146513799034E-2</v>
+        <v>3.6615099738946943E-3</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>18</v>
@@ -11126,10 +11132,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.78659219229581612</v>
+        <v>7.7071523648872708E-2</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>33</v>
@@ -11189,10 +11195,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59546312556670111</v>
+        <v>0.13037286265455705</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>0</v>
@@ -11252,10 +11258,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16988236598494244</v>
+        <v>0.5139694349959314</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>97</v>
@@ -11315,10 +11321,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4532680607094538</v>
+        <v>0.94173661870212222</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>42</v>
@@ -11378,10 +11384,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89320965551139309</v>
+        <v>0.24614662446346702</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>146</v>
@@ -11441,10 +11447,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46532050010079429</v>
+        <v>0.70925963361743982</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>27</v>
@@ -11504,10 +11510,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23804658434669856</v>
+        <v>0.34812794088505594</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>107</v>
@@ -11567,10 +11573,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88565344500639065</v>
+        <v>0.87119821456243796</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>82</v>
@@ -11630,10 +11636,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76043148373130676</v>
+        <v>0.37737696975596779</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>20</v>
@@ -11693,10 +11699,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97544756143489253</v>
+        <v>0.73273687697316003</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>179</v>
@@ -11756,16 +11762,16 @@
         <v>153</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59861355146760387</v>
+        <v>0.59442329020288742</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>153</v>
@@ -11819,10 +11825,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92070468938486305</v>
+        <v>0.38822066761868679</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>181</v>
@@ -11882,10 +11888,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17727528006736237</v>
+        <v>0.54630801284317398</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>182</v>
@@ -11945,10 +11951,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68412127656059829</v>
+        <v>0.61656980355869995</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>183</v>
@@ -12008,7 +12014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6" t="s">
@@ -12066,7 +12072,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
@@ -12124,7 +12130,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6" t="s">
@@ -12182,7 +12188,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6" t="s">
@@ -12240,7 +12246,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6" t="s">
@@ -12298,7 +12304,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6" t="s">
@@ -12356,7 +12362,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20"/>
       <c r="B170" s="19"/>
       <c r="C170" s="6" t="s">
